--- a/biology/Zoologie/Crevette_kuruma/Crevette_kuruma.xlsx
+++ b/biology/Zoologie/Crevette_kuruma/Crevette_kuruma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marsupenaeus japonicus
 La crevette impériale (Penaeus japonicus), ou crevette japonaise, appelée aussi crevette kuruma, d'après son nom japonais, dans le mode anglo-saxon[pas clair], est une espèce de crevette marine de la famille des Penaeidae originaire de l'océan Indien et de l'est de l'océan Pacifique. C'est la première espèce de crevette qui a été l'objet d'élevage au Japon dans les années 1930. En France, des specimen échappés d'un élevage des Charente se sont reproduits, notamment semble-t-il près de l'île de Ré.[réf. nécessaire]
@@ -515,7 +527,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>longueur du corps : 22 cm (mâle) ; 27 cm (femelle)
 longueur de la queue : 3 cm, bandes jaunes et bleues.
@@ -547,7 +561,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>maturité sexuelle :
 mâle : 6 mois
